--- a/22_voteBooth/ethereum_storage_calculations.xlsx
+++ b/22_voteBooth/ethereum_storage_calculations.xlsx
@@ -378,7 +378,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,7 +386,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,14 +616,13 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="18.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,10 +731,10 @@
         <v>10458</v>
       </c>
       <c r="C8" s="7" t="n">
+        <v>128</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>128</v>
       </c>
       <c r="E8" s="8" t="n">
         <f aca="false">$B$5+C8+D8</f>
